--- a/data_year/zb/金融业/保险公司业务经济技术指标/保费.xlsx
+++ b/data_year/zb/金融业/保险公司业务经济技术指标/保费.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1368 +538,872 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>189.8</v>
       </c>
       <c r="C2" t="n">
-        <v>990</v>
+        <v>10501</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>631.7</v>
       </c>
       <c r="E2" t="n">
-        <v>882</v>
+        <v>9679.5</v>
       </c>
       <c r="F2" t="n">
-        <v>118</v>
+        <v>271.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1598</v>
+        <v>14528</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>19.3</v>
       </c>
       <c r="I2" t="n">
-        <v>373</v>
+        <v>3004.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>22.9</v>
       </c>
       <c r="K2" t="n">
-        <v>608</v>
+        <v>4027</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>96</v>
+      </c>
+      <c r="M2" t="n">
+        <v>45.7</v>
+      </c>
       <c r="N2" t="n">
-        <v>18</v>
+        <v>2.8</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+        <v>135.9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>26.8</v>
+      </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>50.8</v>
       </c>
       <c r="T2" t="n">
-        <v>21</v>
+        <v>115.9</v>
       </c>
       <c r="U2" t="n">
-        <v>36</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="C3" t="n">
-        <v>1424</v>
+        <v>9560</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>635.61</v>
       </c>
       <c r="E3" t="n">
-        <v>1288</v>
+        <v>8695.59</v>
       </c>
       <c r="F3" t="n">
-        <v>121</v>
+        <v>329.81</v>
       </c>
       <c r="G3" t="n">
-        <v>2109</v>
+        <v>14339</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>23.32</v>
       </c>
       <c r="I3" t="n">
-        <v>422</v>
+        <v>3504.56</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>56.51</v>
       </c>
       <c r="K3" t="n">
-        <v>685</v>
+        <v>4779</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>115.46</v>
+      </c>
+      <c r="M3" t="n">
+        <v>56.12</v>
+      </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>3.23</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+        <v>174.03</v>
+      </c>
+      <c r="P3" t="n">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>105.12</v>
+      </c>
+      <c r="R3" t="n">
+        <v>35.43</v>
+      </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>55.87</v>
       </c>
       <c r="T3" t="n">
-        <v>28</v>
+        <v>148.01</v>
       </c>
       <c r="U3" t="n">
-        <v>41</v>
+        <v>97.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>259.64</v>
       </c>
       <c r="C4" t="n">
-        <v>2274</v>
+        <v>9958</v>
       </c>
       <c r="D4" t="n">
-        <v>121</v>
+        <v>790.35</v>
       </c>
       <c r="E4" t="n">
-        <v>2074</v>
+        <v>8908.059999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>123</v>
+        <v>360.36</v>
       </c>
       <c r="G4" t="n">
-        <v>3054</v>
+        <v>15488</v>
       </c>
       <c r="H4" t="n">
-        <v>24</v>
+        <v>28.47</v>
       </c>
       <c r="I4" t="n">
-        <v>472</v>
+        <v>4005.17</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>780</v>
+        <v>5530</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>160.57</v>
+      </c>
+      <c r="M4" t="n">
+        <v>72.41</v>
+      </c>
       <c r="N4" t="n">
-        <v>34</v>
+        <v>1.99</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+        <v>240.6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>126.54</v>
+      </c>
+      <c r="R4" t="n">
+        <v>36.87</v>
+      </c>
       <c r="S4" t="n">
-        <v>13</v>
+        <v>55.68</v>
       </c>
       <c r="T4" t="n">
-        <v>37</v>
+        <v>183.77</v>
       </c>
       <c r="U4" t="n">
-        <v>42</v>
+        <v>101.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.58</v>
+        <v>310.41</v>
       </c>
       <c r="C5" t="n">
-        <v>3011</v>
+        <v>10741</v>
       </c>
       <c r="D5" t="n">
-        <v>241.92</v>
+        <v>1005.52</v>
       </c>
       <c r="E5" t="n">
-        <v>2669.49</v>
+        <v>9425.139999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>124.951578660001</v>
+        <v>378.8</v>
       </c>
       <c r="G5" t="n">
-        <v>3880</v>
+        <v>17222</v>
       </c>
       <c r="H5" t="n">
-        <v>19.4186670729841</v>
+        <v>37.87</v>
       </c>
       <c r="I5" t="n">
-        <v>540.144528385215</v>
+        <v>4720.79</v>
       </c>
       <c r="J5" t="n">
-        <v>2.0260464991157</v>
+        <v>120.37</v>
       </c>
       <c r="K5" t="n">
-        <v>869</v>
+        <v>6481</v>
       </c>
       <c r="L5" t="n">
-        <v>8.3079311679</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>155.17</v>
+      </c>
+      <c r="M5" t="n">
+        <v>117.97</v>
+      </c>
       <c r="N5" t="n">
-        <v>66.37</v>
+        <v>1.98</v>
       </c>
       <c r="O5" t="n">
-        <v>4.641154</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+        <v>306.59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>78.61</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>150.93</v>
+      </c>
+      <c r="R5" t="n">
+        <v>38.98</v>
+      </c>
       <c r="S5" t="n">
-        <v>14.8559431755984</v>
+        <v>53.53</v>
       </c>
       <c r="T5" t="n">
-        <v>34.8204906629603</v>
+        <v>216.63</v>
       </c>
       <c r="U5" t="n">
-        <v>40.8220356547626</v>
+        <v>102.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86</v>
+        <v>370.63</v>
       </c>
       <c r="C6" t="n">
-        <v>3194</v>
+        <v>12690</v>
       </c>
       <c r="D6" t="n">
-        <v>257</v>
+        <v>1418.09</v>
       </c>
       <c r="E6" t="n">
-        <v>2851</v>
+        <v>10901.69</v>
       </c>
       <c r="F6" t="n">
-        <v>134</v>
+        <v>387.35</v>
       </c>
       <c r="G6" t="n">
-        <v>4318</v>
+        <v>20235</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>33.68</v>
       </c>
       <c r="I6" t="n">
-        <v>745</v>
+        <v>5515.93</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>199.88</v>
       </c>
       <c r="K6" t="n">
-        <v>1125</v>
+        <v>7544</v>
       </c>
       <c r="L6" t="n">
-        <v>16</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>200.67</v>
+      </c>
+      <c r="M6" t="n">
+        <v>169.09</v>
+      </c>
       <c r="N6" t="n">
-        <v>91</v>
+        <v>12.8</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+        <v>325.78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>81.67</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>171.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>41.76</v>
+      </c>
       <c r="S6" t="n">
-        <v>20</v>
+        <v>55.12</v>
       </c>
       <c r="T6" t="n">
-        <v>33</v>
+        <v>253.3</v>
       </c>
       <c r="U6" t="n">
-        <v>46</v>
+        <v>95.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>435.6</v>
       </c>
       <c r="C7" t="n">
-        <v>3646</v>
+        <v>15859</v>
       </c>
       <c r="D7" t="n">
-        <v>307</v>
+        <v>2182.1</v>
       </c>
       <c r="E7" t="n">
-        <v>3247</v>
+        <v>13241.5</v>
       </c>
       <c r="F7" t="n">
-        <v>149</v>
+        <v>386.2</v>
       </c>
       <c r="G7" t="n">
-        <v>4927</v>
+        <v>24283</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>41.7</v>
       </c>
       <c r="I7" t="n">
-        <v>858</v>
+        <v>6199</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>208.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1281</v>
+        <v>8423</v>
       </c>
       <c r="L7" t="n">
-        <v>23</v>
+        <v>192.5</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>228.3</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>22.2</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>374.9</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="R7" t="n">
-        <v>19</v>
+        <v>42.3</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>55.1</v>
       </c>
       <c r="T7" t="n">
-        <v>45</v>
+        <v>301.8</v>
       </c>
       <c r="U7" t="n">
-        <v>51</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.439348</v>
+        <v>502.87</v>
       </c>
       <c r="C8" t="n">
-        <v>4061</v>
+        <v>21638.3</v>
       </c>
       <c r="D8" t="n">
-        <v>368.013202</v>
+        <v>3739.54</v>
       </c>
       <c r="E8" t="n">
-        <v>3592.750085</v>
+        <v>17395.88</v>
       </c>
       <c r="F8" t="n">
-        <v>157.440774</v>
+        <v>381.21</v>
       </c>
       <c r="G8" t="n">
-        <v>5641</v>
+        <v>30904.15</v>
       </c>
       <c r="H8" t="n">
-        <v>11.251142</v>
+        <v>52.15</v>
       </c>
       <c r="I8" t="n">
-        <v>1107.873597</v>
+        <v>6834.22</v>
       </c>
       <c r="J8" t="n">
-        <v>8.387339000000001</v>
+        <v>184.12</v>
       </c>
       <c r="K8" t="n">
-        <v>1580</v>
+        <v>9266</v>
       </c>
       <c r="L8" t="n">
-        <v>28.666067</v>
+        <v>200.92</v>
       </c>
       <c r="M8" t="n">
-        <v>8.836019</v>
+        <v>293.67</v>
       </c>
       <c r="N8" t="n">
-        <v>1.589801</v>
+        <v>21.17</v>
       </c>
       <c r="O8" t="n">
-        <v>8.476336999999999</v>
+        <v>417.71</v>
       </c>
       <c r="P8" t="n">
-        <v>24.581179</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.866531</v>
+        <v>247.91</v>
       </c>
       <c r="R8" t="n">
-        <v>20.558616</v>
+        <v>40.33</v>
       </c>
       <c r="S8" t="n">
-        <v>27.834979</v>
+        <v>51.19</v>
       </c>
       <c r="T8" t="n">
-        <v>56.203941</v>
+        <v>362.4</v>
       </c>
       <c r="U8" t="n">
-        <v>55.570322</v>
+        <v>85.51000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.85</v>
+        <v>588.4</v>
       </c>
       <c r="C9" t="n">
-        <v>4949</v>
+        <v>26040</v>
       </c>
       <c r="D9" t="n">
-        <v>369.74</v>
+        <v>3992.5</v>
       </c>
       <c r="E9" t="n">
-        <v>4463.4</v>
+        <v>21455.4</v>
       </c>
       <c r="F9" t="n">
-        <v>186.83</v>
+        <v>392</v>
       </c>
       <c r="G9" t="n">
-        <v>7036</v>
+        <v>36581</v>
       </c>
       <c r="H9" t="n">
-        <v>17.01</v>
+        <v>62.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1484.28</v>
+        <v>7521.1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.24</v>
+        <v>379.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2086</v>
+        <v>10541</v>
       </c>
       <c r="L9" t="n">
-        <v>34.78</v>
+        <v>214.4</v>
       </c>
       <c r="M9" t="n">
-        <v>14.44</v>
+        <v>394.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3</v>
+        <v>25.8</v>
       </c>
       <c r="O9" t="n">
-        <v>53.33</v>
+        <v>478.9</v>
       </c>
       <c r="P9" t="n">
-        <v>31.48</v>
+        <v>110.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.31</v>
+        <v>312.7</v>
       </c>
       <c r="R9" t="n">
-        <v>24.48</v>
+        <v>50.4</v>
       </c>
       <c r="S9" t="n">
-        <v>31.28</v>
+        <v>48</v>
       </c>
       <c r="T9" t="n">
-        <v>66.59999999999999</v>
+        <v>451.4</v>
       </c>
       <c r="U9" t="n">
-        <v>63.11</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.86</v>
+        <v>658.9556127577</v>
       </c>
       <c r="C10" t="n">
-        <v>7338</v>
+        <v>26261</v>
       </c>
       <c r="D10" t="n">
-        <v>548.73</v>
+        <v>4875.079357471</v>
       </c>
       <c r="E10" t="n">
-        <v>6658.4</v>
+        <v>20722.844507222</v>
       </c>
       <c r="F10" t="n">
-        <v>209.63</v>
+        <v>423.2894705946</v>
       </c>
       <c r="G10" t="n">
-        <v>9784</v>
+        <v>38017</v>
       </c>
       <c r="H10" t="n">
-        <v>12.68</v>
+        <v>76.7670874129</v>
       </c>
       <c r="I10" t="n">
-        <v>1702.52</v>
+        <v>7834.0542405666</v>
       </c>
       <c r="J10" t="n">
-        <v>6.39</v>
+        <v>645.0907501325</v>
       </c>
       <c r="K10" t="n">
-        <v>2446</v>
+        <v>11756</v>
       </c>
       <c r="L10" t="n">
-        <v>36.73</v>
+        <v>242.4797009117</v>
       </c>
       <c r="M10" t="n">
-        <v>36.83</v>
+        <v>569.0282713969</v>
       </c>
       <c r="N10" t="n">
-        <v>0.49</v>
+        <v>30.9550669377</v>
       </c>
       <c r="O10" t="n">
-        <v>110.68</v>
+        <v>572.7351616038</v>
       </c>
       <c r="P10" t="n">
-        <v>39.23</v>
+        <v>120.7525882746</v>
       </c>
       <c r="Q10" t="n">
-        <v>72.70999999999999</v>
+        <v>416.7367289367</v>
       </c>
       <c r="R10" t="n">
-        <v>26.95</v>
+        <v>59.4691675724</v>
       </c>
       <c r="S10" t="n">
-        <v>38.69</v>
+        <v>52.9730705508</v>
       </c>
       <c r="T10" t="n">
-        <v>81.75</v>
+        <v>590.8893113322</v>
       </c>
       <c r="U10" t="n">
-        <v>70.90000000000001</v>
+        <v>121.2312559798</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.1</v>
+        <v>648.5950356489</v>
       </c>
       <c r="C11" t="n">
-        <v>8144</v>
+        <v>29628.4</v>
       </c>
       <c r="D11" t="n">
-        <v>530.8</v>
+        <v>6225.6840033037</v>
       </c>
       <c r="E11" t="n">
-        <v>7457.4</v>
+        <v>22754.1373462409</v>
       </c>
       <c r="F11" t="n">
-        <v>221.4</v>
+        <v>464.101587</v>
       </c>
       <c r="G11" t="n">
-        <v>11137</v>
+        <v>42644.8</v>
       </c>
       <c r="H11" t="n">
-        <v>15.1</v>
+        <v>91.213347</v>
       </c>
       <c r="I11" t="n">
-        <v>2155.6</v>
+        <v>8188.316573</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>843.65271</v>
       </c>
       <c r="K11" t="n">
-        <v>2993</v>
+        <v>13016.3</v>
       </c>
       <c r="L11" t="n">
-        <v>70.2</v>
+        <v>199.954992</v>
       </c>
       <c r="M11" t="n">
-        <v>43.1</v>
+        <v>840.292367</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9</v>
+        <v>64.08593999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>133.9</v>
+        <v>672.481981</v>
       </c>
       <c r="P11" t="n">
-        <v>51.6</v>
+        <v>117.844252</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.90000000000001</v>
+        <v>526.568609</v>
       </c>
       <c r="R11" t="n">
-        <v>23.7</v>
+        <v>68.88746</v>
       </c>
       <c r="S11" t="n">
-        <v>41.8</v>
+        <v>55.510888</v>
       </c>
       <c r="T11" t="n">
-        <v>92.2</v>
+        <v>753.296029</v>
       </c>
       <c r="U11" t="n">
-        <v>61.3</v>
+        <v>130.122862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>189.8</v>
+        <v>633.2127656841</v>
       </c>
       <c r="C12" t="n">
-        <v>10501</v>
+        <v>31673.6375340708</v>
       </c>
       <c r="D12" t="n">
-        <v>631.7</v>
+        <v>7058.5000657073</v>
       </c>
       <c r="E12" t="n">
-        <v>9679.5</v>
+        <v>23981.9247026794</v>
       </c>
       <c r="F12" t="n">
-        <v>271.6</v>
+        <v>490.261422</v>
       </c>
       <c r="G12" t="n">
-        <v>14528</v>
+        <v>45257.3384735757</v>
       </c>
       <c r="H12" t="n">
-        <v>19.3</v>
+        <v>90.78696600000001</v>
       </c>
       <c r="I12" t="n">
-        <v>3004.2</v>
+        <v>8244.752098999999</v>
       </c>
       <c r="J12" t="n">
-        <v>22.9</v>
+        <v>688.5706259999999</v>
       </c>
       <c r="K12" t="n">
-        <v>4027</v>
+        <v>13583.690897</v>
       </c>
       <c r="L12" t="n">
-        <v>96</v>
+        <v>204.882984</v>
       </c>
       <c r="M12" t="n">
-        <v>45.7</v>
+        <v>1114.212694</v>
       </c>
       <c r="N12" t="n">
-        <v>2.8</v>
+        <v>89.02405400000001</v>
       </c>
       <c r="O12" t="n">
-        <v>135.9</v>
+        <v>814.933039</v>
       </c>
       <c r="P12" t="n">
-        <v>70.90000000000001</v>
+        <v>138.409582</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.5</v>
+        <v>540.901103</v>
       </c>
       <c r="R12" t="n">
-        <v>26.8</v>
+        <v>72.15913399999999</v>
       </c>
       <c r="S12" t="n">
-        <v>50.8</v>
+        <v>57.710339</v>
       </c>
       <c r="T12" t="n">
-        <v>115.9</v>
+        <v>901.125853</v>
       </c>
       <c r="U12" t="n">
-        <v>78.7</v>
+        <v>135.961003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>229</v>
+        <v>582.8921989792</v>
       </c>
       <c r="C13" t="n">
-        <v>9560</v>
+        <v>31223.67</v>
       </c>
       <c r="D13" t="n">
-        <v>635.61</v>
+        <v>7068.9402158793</v>
       </c>
       <c r="E13" t="n">
-        <v>8695.59</v>
+        <v>23571.8391204023</v>
       </c>
       <c r="F13" t="n">
-        <v>329.81</v>
+        <v>519.7591135123999</v>
       </c>
       <c r="G13" t="n">
-        <v>14339</v>
+        <v>44900.17</v>
       </c>
       <c r="H13" t="n">
-        <v>23.32</v>
+        <v>98.16244091820001</v>
       </c>
       <c r="I13" t="n">
-        <v>3504.56</v>
+        <v>7772.6771632851</v>
       </c>
       <c r="J13" t="n">
-        <v>56.51</v>
+        <v>521.1994288014</v>
       </c>
       <c r="K13" t="n">
-        <v>4779</v>
+        <v>13676.48</v>
       </c>
       <c r="L13" t="n">
-        <v>115.46</v>
+        <v>203.8527212584</v>
       </c>
       <c r="M13" t="n">
-        <v>56.12</v>
+        <v>1378.0759711247</v>
       </c>
       <c r="N13" t="n">
-        <v>3.23</v>
+        <v>119.3064562342</v>
       </c>
       <c r="O13" t="n">
-        <v>174.03</v>
+        <v>975.8481987714</v>
       </c>
       <c r="P13" t="n">
-        <v>73.76000000000001</v>
+        <v>143.6753239701</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.12</v>
+        <v>627.2959050369</v>
       </c>
       <c r="R13" t="n">
-        <v>35.43</v>
+        <v>72.70590076960001</v>
       </c>
       <c r="S13" t="n">
-        <v>55.87</v>
+        <v>57.7657385265</v>
       </c>
       <c r="T13" t="n">
-        <v>148.01</v>
+        <v>1018.4411695656</v>
       </c>
       <c r="U13" t="n">
-        <v>97.83</v>
+        <v>167.7180766338</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>259.64</v>
+        <v>499.1701496773</v>
       </c>
       <c r="C14" t="n">
-        <v>9958</v>
+        <v>32090.63</v>
       </c>
       <c r="D14" t="n">
-        <v>790.35</v>
+        <v>7072.8379025607</v>
       </c>
       <c r="E14" t="n">
-        <v>8908.059999999999</v>
+        <v>24518.6238171221</v>
       </c>
       <c r="F14" t="n">
-        <v>360.36</v>
+        <v>553.3764626099</v>
       </c>
       <c r="G14" t="n">
-        <v>15488</v>
+        <v>46957.18</v>
       </c>
       <c r="H14" t="n">
-        <v>28.47</v>
+        <v>164.136427379</v>
       </c>
       <c r="I14" t="n">
-        <v>4005.17</v>
+        <v>8210.176724867501</v>
       </c>
       <c r="J14" t="n">
-        <v>93.45999999999999</v>
+        <v>551.733364915</v>
       </c>
       <c r="K14" t="n">
-        <v>5530</v>
+        <v>14866.54</v>
       </c>
       <c r="L14" t="n">
-        <v>160.57</v>
+        <v>236.7791981121</v>
       </c>
       <c r="M14" t="n">
-        <v>72.41</v>
+        <v>1580.1005600468</v>
       </c>
       <c r="N14" t="n">
-        <v>1.99</v>
+        <v>179.0915905753</v>
       </c>
       <c r="O14" t="n">
-        <v>240.6</v>
+        <v>1219.3457094726</v>
       </c>
       <c r="P14" t="n">
-        <v>62.26</v>
+        <v>145.1243008313</v>
       </c>
       <c r="Q14" t="n">
-        <v>126.54</v>
+        <v>574.063559044</v>
       </c>
       <c r="R14" t="n">
-        <v>36.87</v>
+        <v>61.0230988456</v>
       </c>
       <c r="S14" t="n">
-        <v>55.68</v>
+        <v>66.16856364989999</v>
       </c>
       <c r="T14" t="n">
-        <v>183.77</v>
+        <v>1147.4991638464</v>
       </c>
       <c r="U14" t="n">
-        <v>101.71</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>310.41</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10741</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1005.52</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9425.139999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>378.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>17222</v>
-      </c>
-      <c r="H15" t="n">
-        <v>37.87</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4720.79</v>
-      </c>
-      <c r="J15" t="n">
-        <v>120.37</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6481</v>
-      </c>
-      <c r="L15" t="n">
-        <v>155.17</v>
-      </c>
-      <c r="M15" t="n">
-        <v>117.97</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O15" t="n">
-        <v>306.59</v>
-      </c>
-      <c r="P15" t="n">
-        <v>78.61</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>150.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>38.98</v>
-      </c>
-      <c r="S15" t="n">
-        <v>53.53</v>
-      </c>
-      <c r="T15" t="n">
-        <v>216.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>102.94</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>370.63</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12690</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1418.09</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10901.69</v>
-      </c>
-      <c r="F16" t="n">
-        <v>387.35</v>
-      </c>
-      <c r="G16" t="n">
-        <v>20235</v>
-      </c>
-      <c r="H16" t="n">
-        <v>33.68</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5515.93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>199.88</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7544</v>
-      </c>
-      <c r="L16" t="n">
-        <v>200.67</v>
-      </c>
-      <c r="M16" t="n">
-        <v>169.09</v>
-      </c>
-      <c r="N16" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>325.78</v>
-      </c>
-      <c r="P16" t="n">
-        <v>81.67</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>171.93</v>
-      </c>
-      <c r="R16" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="S16" t="n">
-        <v>55.12</v>
-      </c>
-      <c r="T16" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>95.44</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>435.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15859</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2182.1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13241.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>24283</v>
-      </c>
-      <c r="H17" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6199</v>
-      </c>
-      <c r="J17" t="n">
-        <v>208.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8423</v>
-      </c>
-      <c r="L17" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>228.3</v>
-      </c>
-      <c r="N17" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>374.9</v>
-      </c>
-      <c r="P17" t="n">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>200</v>
-      </c>
-      <c r="R17" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="T17" t="n">
-        <v>301.8</v>
-      </c>
-      <c r="U17" t="n">
-        <v>88.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>502.87</v>
-      </c>
-      <c r="C18" t="n">
-        <v>21638.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3739.54</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17395.88</v>
-      </c>
-      <c r="F18" t="n">
-        <v>381.21</v>
-      </c>
-      <c r="G18" t="n">
-        <v>30904.15</v>
-      </c>
-      <c r="H18" t="n">
-        <v>52.15</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6834.22</v>
-      </c>
-      <c r="J18" t="n">
-        <v>184.12</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9266</v>
-      </c>
-      <c r="L18" t="n">
-        <v>200.92</v>
-      </c>
-      <c r="M18" t="n">
-        <v>293.67</v>
-      </c>
-      <c r="N18" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="O18" t="n">
-        <v>417.71</v>
-      </c>
-      <c r="P18" t="n">
-        <v>93.23999999999999</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>247.91</v>
-      </c>
-      <c r="R18" t="n">
-        <v>40.33</v>
-      </c>
-      <c r="S18" t="n">
-        <v>51.19</v>
-      </c>
-      <c r="T18" t="n">
-        <v>362.4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>85.51000000000001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>588.4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>26040</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3992.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>21455.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>392</v>
-      </c>
-      <c r="G19" t="n">
-        <v>36581</v>
-      </c>
-      <c r="H19" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7521.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>379.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>10541</v>
-      </c>
-      <c r="L19" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>478.9</v>
-      </c>
-      <c r="P19" t="n">
-        <v>110.2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>312.7</v>
-      </c>
-      <c r="R19" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>48</v>
-      </c>
-      <c r="T19" t="n">
-        <v>451.4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>658.9556127577</v>
-      </c>
-      <c r="C20" t="n">
-        <v>26261</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4875.079357471</v>
-      </c>
-      <c r="E20" t="n">
-        <v>20722.844507222</v>
-      </c>
-      <c r="F20" t="n">
-        <v>423.2894705946</v>
-      </c>
-      <c r="G20" t="n">
-        <v>38017</v>
-      </c>
-      <c r="H20" t="n">
-        <v>76.7670874129</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7834.0542405666</v>
-      </c>
-      <c r="J20" t="n">
-        <v>645.0907501325</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11756</v>
-      </c>
-      <c r="L20" t="n">
-        <v>242.4797009117</v>
-      </c>
-      <c r="M20" t="n">
-        <v>569.0282713969</v>
-      </c>
-      <c r="N20" t="n">
-        <v>30.9550669377</v>
-      </c>
-      <c r="O20" t="n">
-        <v>572.7351616038</v>
-      </c>
-      <c r="P20" t="n">
-        <v>120.7525882746</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>416.7367289367</v>
-      </c>
-      <c r="R20" t="n">
-        <v>59.4691675724</v>
-      </c>
-      <c r="S20" t="n">
-        <v>52.9730705508</v>
-      </c>
-      <c r="T20" t="n">
-        <v>590.8893113322</v>
-      </c>
-      <c r="U20" t="n">
-        <v>121.2312559798</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>648.5950356489</v>
-      </c>
-      <c r="C21" t="n">
-        <v>29628.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6225.6840033037</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22754.1373462409</v>
-      </c>
-      <c r="F21" t="n">
-        <v>464.101587</v>
-      </c>
-      <c r="G21" t="n">
-        <v>42644.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>91.213347</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8188.316573</v>
-      </c>
-      <c r="J21" t="n">
-        <v>843.65271</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13016.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>199.954992</v>
-      </c>
-      <c r="M21" t="n">
-        <v>840.292367</v>
-      </c>
-      <c r="N21" t="n">
-        <v>64.08593999999999</v>
-      </c>
-      <c r="O21" t="n">
-        <v>672.481981</v>
-      </c>
-      <c r="P21" t="n">
-        <v>117.844252</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>526.568609</v>
-      </c>
-      <c r="R21" t="n">
-        <v>68.88746</v>
-      </c>
-      <c r="S21" t="n">
-        <v>55.510888</v>
-      </c>
-      <c r="T21" t="n">
-        <v>753.296029</v>
-      </c>
-      <c r="U21" t="n">
-        <v>130.122862</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>633.2127656841</v>
-      </c>
-      <c r="C22" t="n">
-        <v>31673.6375340708</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7058.5000657073</v>
-      </c>
-      <c r="E22" t="n">
-        <v>23981.9247026794</v>
-      </c>
-      <c r="F22" t="n">
-        <v>490.261422</v>
-      </c>
-      <c r="G22" t="n">
-        <v>45257.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>90.78696600000001</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8244.752098999999</v>
-      </c>
-      <c r="J22" t="n">
-        <v>688.5706259999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>13583.690897</v>
-      </c>
-      <c r="L22" t="n">
-        <v>204.882984</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1114.212694</v>
-      </c>
-      <c r="N22" t="n">
-        <v>89.02405400000001</v>
-      </c>
-      <c r="O22" t="n">
-        <v>814.933039</v>
-      </c>
-      <c r="P22" t="n">
-        <v>138.409582</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>540.901103</v>
-      </c>
-      <c r="R22" t="n">
-        <v>72.15913399999999</v>
-      </c>
-      <c r="S22" t="n">
-        <v>57.710339</v>
-      </c>
-      <c r="T22" t="n">
-        <v>901.125853</v>
-      </c>
-      <c r="U22" t="n">
-        <v>135.961003</v>
+        <v>177.9250012065</v>
       </c>
     </row>
   </sheetData>
